--- a/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
+++ b/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectX Teamproject 관련 파일, 문서\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AC594D-B951-4064-9E54-987263D838D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED81BDA2-E0E7-44AC-8A08-998D348E4DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="0" windowWidth="18180" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
+    <workbookView xWindow="7410" yWindow="0" windowWidth="18180" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
   </bookViews>
   <sheets>
     <sheet name="json 파일 구조" sheetId="2" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="190">
   <si>
     <t>명칭</t>
   </si>
@@ -3506,9 +3506,6 @@
     <t xml:space="preserve">Rigid rate                 </t>
   </si>
   <si>
-    <t xml:space="preserve">Combo time limit           </t>
-  </si>
-  <si>
     <t xml:space="preserve">Critical additional damage </t>
   </si>
   <si>
@@ -3546,12 +3543,6 @@
     <t xml:space="preserve">Duration time </t>
   </si>
   <si>
-    <t>Aggro</t>
-  </si>
-  <si>
-    <t>Move speed</t>
-  </si>
-  <si>
     <t>Poison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3739,10 +3730,6 @@
   </si>
   <si>
     <t>콤보 연계 제한시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4420,6 +4407,22 @@
       </rPr>
       <t>손상치</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo time limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4923,7 +4926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5035,6 +5038,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5050,42 +5176,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5112,99 +5205,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5523,7 +5523,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5537,7 +5537,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" s="10">
         <v>1</v>
@@ -5566,35 +5566,37 @@
       <c r="D2" s="12"/>
       <c r="E2" s="31"/>
       <c r="G2" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="16"/>
       <c r="C3" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="32"/>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="16"/>
       <c r="C4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="16"/>
+        <v>140</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="E4" s="32"/>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5604,55 +5606,55 @@
       <c r="D5" s="13"/>
       <c r="E5" s="32"/>
       <c r="G5" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="16" customFormat="1">
       <c r="D6" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="16" customFormat="1">
       <c r="D7" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="16" customFormat="1">
       <c r="D8" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="16" customFormat="1">
       <c r="D9" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="16" customFormat="1">
@@ -5661,10 +5663,10 @@
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="16" customFormat="1">
@@ -5673,10 +5675,10 @@
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="16" customFormat="1">
@@ -5685,70 +5687,70 @@
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="16" customFormat="1">
       <c r="D13" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="32"/>
+        <v>187</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>186</v>
+      </c>
       <c r="F13" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="16" customFormat="1">
       <c r="D14" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>157</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1">
       <c r="D15" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="16" customFormat="1">
       <c r="C16" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="32"/>
       <c r="G16" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="3:7" s="16" customFormat="1">
       <c r="D17" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="3:7" s="16" customFormat="1">
@@ -5757,218 +5759,222 @@
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="3:7" s="16" customFormat="1">
       <c r="C19" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="32"/>
       <c r="G19" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="3:7" s="16" customFormat="1">
       <c r="D20" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="32"/>
+        <v>91</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>186</v>
+      </c>
       <c r="F20" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="3:7" s="16" customFormat="1">
       <c r="D21" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="3:7" s="16" customFormat="1">
       <c r="C22" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="33"/>
       <c r="G22" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="3:7" s="16" customFormat="1">
       <c r="D23" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E23" s="34"/>
       <c r="G23" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="3:7" s="16" customFormat="1">
       <c r="E24" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="3:7" s="16" customFormat="1">
       <c r="E25" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="3:7" s="16" customFormat="1">
       <c r="E26" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="3:7" s="16" customFormat="1">
       <c r="C27" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="32"/>
       <c r="G27" s="25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="3:7" s="16" customFormat="1">
       <c r="D28" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="3:7" s="16" customFormat="1">
       <c r="D29" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="3:7" s="16" customFormat="1">
       <c r="C30" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="32"/>
       <c r="G30" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="3:7" s="16" customFormat="1">
       <c r="D31" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="3:7" s="16" customFormat="1">
       <c r="C32" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="32"/>
       <c r="G32" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="3:7" s="16" customFormat="1">
       <c r="D33" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="3:7" s="16" customFormat="1">
       <c r="C34" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="32"/>
       <c r="G34" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="3:7" s="16" customFormat="1">
       <c r="D35" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="3:7" s="16" customFormat="1" ht="33">
       <c r="C36" s="15" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="3:7" s="16" customFormat="1">
-      <c r="C37" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="92" t="s">
-        <v>182</v>
+      <c r="C37" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="3:7" s="16" customFormat="1">
@@ -5996,7 +6002,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17.25" thickBot="1">
       <c r="A1" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -6029,79 +6035,79 @@
     </row>
     <row r="2" spans="1:29" ht="66.75" thickBot="1">
       <c r="A2" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="W2" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="X2" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y2" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
@@ -6110,7 +6116,7 @@
     </row>
     <row r="3" spans="1:29" ht="45.75" thickBot="1">
       <c r="A3" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="21">
         <v>500</v>
@@ -6131,13 +6137,13 @@
         <v>50</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K3" s="22">
         <v>0.1</v>
@@ -6155,13 +6161,13 @@
         <v>100</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q3" s="21">
         <v>100</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S3" s="21">
         <v>5</v>
@@ -6242,329 +6248,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="75" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
     </row>
     <row r="9" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
     </row>
     <row r="14" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="75" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="46"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="64"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="69" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="69"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="69"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
     </row>
     <row r="21" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="69"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="70"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -6573,75 +6579,75 @@
       <c r="C23" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="78"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="78"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="78"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="79"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
     </row>
     <row r="28" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="66" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -6650,60 +6656,60 @@
       <c r="C28" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="81"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="82"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -6712,192 +6718,152 @@
       <c r="C32" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="64"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="90"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
     </row>
     <row r="35" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="74" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="76"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
     </row>
     <row r="37" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
     </row>
     <row r="38" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="47" t="s">
+      <c r="B38" s="54"/>
+      <c r="C38" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="60" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="67"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="49"/>
     </row>
     <row r="40" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="89"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="67"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="1:9" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="83" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="85"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
@@ -6914,6 +6880,46 @@
     <mergeCell ref="C10:I11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
+++ b/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectX Teamproject 관련 파일, 문서\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED81BDA2-E0E7-44AC-8A08-998D348E4DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493F2B9-D52C-4DAC-8BE6-34A89186601C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="0" windowWidth="18180" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
+    <workbookView xWindow="3225" yWindow="0" windowWidth="18180" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
   </bookViews>
   <sheets>
     <sheet name="json 파일 구조" sheetId="2" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
   <si>
     <t>명칭</t>
   </si>
@@ -4926,7 +4926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5044,167 +5044,188 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5520,22 +5541,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7D0CFC-C9B4-405A-B26C-1651B25F2518}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="22" style="36" customWidth="1"/>
-    <col min="6" max="6" width="7.125" customWidth="1"/>
-    <col min="7" max="7" width="57.5" customWidth="1"/>
+    <col min="5" max="5" width="22" style="99" customWidth="1"/>
+    <col min="6" max="6" width="2.375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>105</v>
       </c>
@@ -5548,42 +5570,45 @@
       <c r="D1" s="10">
         <v>3</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="93">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="B2" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="31"/>
+      <c r="H2" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="B3" s="16"/>
       <c r="C3" s="15" t="s">
         <v>139</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="32"/>
-      <c r="F3" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="32"/>
+      <c r="G3" t="s">
         <v>141</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="B4" s="16"/>
       <c r="C4" s="15" t="s">
         <v>140</v>
@@ -5591,394 +5616,470 @@
       <c r="D4" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="32"/>
+      <c r="G4" t="s">
         <v>142</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="C5" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="32"/>
-      <c r="G5" s="24" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="32"/>
+      <c r="H5" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1">
+    <row r="6" spans="1:8" s="16" customFormat="1">
       <c r="D6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1">
+    <row r="7" spans="1:8" s="16" customFormat="1">
       <c r="D7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1">
+    <row r="8" spans="1:8" s="16" customFormat="1">
       <c r="D8" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1">
+    <row r="9" spans="1:8" s="16" customFormat="1">
       <c r="D9" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1">
+    <row r="10" spans="1:8" s="16" customFormat="1">
       <c r="D10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1">
+    <row r="11" spans="1:8" s="16" customFormat="1">
       <c r="D11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1">
+    <row r="12" spans="1:8" s="16" customFormat="1">
       <c r="D12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1">
+    <row r="13" spans="1:8" s="16" customFormat="1">
       <c r="D13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1">
+    <row r="14" spans="1:8" s="16" customFormat="1">
       <c r="D14" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1">
+    <row r="15" spans="1:8" s="16" customFormat="1">
       <c r="D15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1">
+    <row r="16" spans="1:8" s="16" customFormat="1">
       <c r="C16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="25" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="32"/>
+      <c r="H16" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="3:7" s="16" customFormat="1">
+    <row r="17" spans="3:8" s="16" customFormat="1">
       <c r="D17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="3:7" s="16" customFormat="1">
+    <row r="18" spans="3:8" s="16" customFormat="1">
       <c r="D18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="H18" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="3:7" s="16" customFormat="1">
+    <row r="19" spans="3:8" s="16" customFormat="1">
       <c r="C19" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="32"/>
-      <c r="G19" s="25" t="s">
+      <c r="E19" s="95"/>
+      <c r="F19" s="32"/>
+      <c r="H19" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="3:7" s="16" customFormat="1">
+    <row r="20" spans="3:8" s="16" customFormat="1">
       <c r="D20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="H20" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="3:7" s="16" customFormat="1">
+    <row r="21" spans="3:8" s="16" customFormat="1">
       <c r="D21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="H21" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="3:7" s="16" customFormat="1">
+    <row r="22" spans="3:8" s="16" customFormat="1">
       <c r="C22" s="13" t="s">
         <v>101</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="33"/>
-      <c r="G22" s="25" t="s">
+      <c r="E22" s="96"/>
+      <c r="F22" s="33"/>
+      <c r="H22" s="25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="3:7" s="16" customFormat="1">
+    <row r="23" spans="3:8" s="16" customFormat="1">
       <c r="D23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="G23" s="25" t="s">
+      <c r="E23" s="97"/>
+      <c r="F23" s="34"/>
+      <c r="H23" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="3:7" s="16" customFormat="1">
-      <c r="E24" s="32" t="s">
+    <row r="24" spans="3:8" s="16" customFormat="1">
+      <c r="E24" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="F24" s="32"/>
+      <c r="H24" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="3:7" s="16" customFormat="1">
-      <c r="E25" s="35" t="s">
+    <row r="25" spans="3:8" s="16" customFormat="1">
+      <c r="E25" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="3:7" s="16" customFormat="1">
-      <c r="E26" s="35" t="s">
+    <row r="26" spans="3:8" s="16" customFormat="1">
+      <c r="E26" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="H26" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="3:7" s="16" customFormat="1">
+    <row r="27" spans="3:8" s="16" customFormat="1">
       <c r="C27" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="32"/>
-      <c r="G27" s="25" t="s">
+      <c r="E27" s="95"/>
+      <c r="F27" s="32"/>
+      <c r="H27" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="3:7" s="16" customFormat="1">
+    <row r="28" spans="3:8" s="16" customFormat="1">
       <c r="D28" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="16" t="s">
+      <c r="E28" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="H28" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="3:7" s="16" customFormat="1">
+    <row r="29" spans="3:8" s="16" customFormat="1">
       <c r="D29" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="16" t="s">
+      <c r="E29" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="H29" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="3:7" s="16" customFormat="1">
+    <row r="30" spans="3:8" s="16" customFormat="1">
       <c r="C30" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="32"/>
-      <c r="G30" s="25" t="s">
+      <c r="E30" s="95"/>
+      <c r="F30" s="32"/>
+      <c r="H30" s="25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="3:7" s="16" customFormat="1">
+    <row r="31" spans="3:8" s="16" customFormat="1">
       <c r="D31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="H31" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="3:7" s="16" customFormat="1">
+    <row r="32" spans="3:8" s="16" customFormat="1">
       <c r="C32" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="32"/>
-      <c r="G32" s="25" t="s">
+      <c r="E32" s="95"/>
+      <c r="F32" s="32"/>
+      <c r="H32" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="3:7" s="16" customFormat="1">
+    <row r="33" spans="3:8" s="16" customFormat="1">
       <c r="D33" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="16" t="s">
+      <c r="E33" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="H33" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="3:7" s="16" customFormat="1">
+    <row r="34" spans="3:8" s="16" customFormat="1">
       <c r="C34" s="13" t="s">
         <v>181</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="32"/>
-      <c r="G34" s="25" t="s">
+      <c r="E34" s="95"/>
+      <c r="F34" s="32"/>
+      <c r="H34" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="3:7" s="16" customFormat="1">
+    <row r="35" spans="3:8" s="16" customFormat="1">
       <c r="D35" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="16" t="s">
+      <c r="E35" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="3:7" s="16" customFormat="1" ht="33">
+    <row r="36" spans="3:8" s="16" customFormat="1" ht="33">
       <c r="C36" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="16" t="s">
+      <c r="D36" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="95"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="H36" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="3:7" s="16" customFormat="1">
+    <row r="37" spans="3:8" s="16" customFormat="1">
       <c r="C37" s="37" t="s">
         <v>189</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="38" t="s">
+      <c r="E37" s="95"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="H37" s="38" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="3:7" s="16" customFormat="1">
-      <c r="E38" s="32"/>
+    <row r="38" spans="3:8" s="16" customFormat="1">
+      <c r="E38" s="95"/>
+      <c r="F38" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5992,7 +6093,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6236,7 +6337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B94ADF-624C-441B-B492-48A4059F0C13}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C37" sqref="C37:I37"/>
     </sheetView>
   </sheetViews>
@@ -6248,622 +6349,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="54"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="76"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="54"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="75" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="54"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="76"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="54"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="54"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="54"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="54"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="76"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="54"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="65" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="49"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="70" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="71"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="79" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="64"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="64"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="64"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
     </row>
     <row r="27" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="65"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="82" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="67"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="67"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
     </row>
     <row r="31" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="68"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="78"/>
     </row>
     <row r="32" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="65" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="45"/>
     </row>
     <row r="33" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="45"/>
     </row>
     <row r="34" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="42" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="45"/>
     </row>
     <row r="37" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="58" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="54"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="51"/>
     </row>
     <row r="39" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="90" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="49"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69"/>
     </row>
     <row r="40" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="61"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="49"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
     </row>
     <row r="41" spans="1:9" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="69"/>
+      <c r="C41" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
@@ -6880,46 +7021,6 @@
     <mergeCell ref="C10:I11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
+++ b/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectX Teamproject 관련 파일, 문서\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493F2B9-D52C-4DAC-8BE6-34A89186601C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C3AC46-9497-47AC-BF6F-C5F8F061F727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="0" windowWidth="18180" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
+    <workbookView xWindow="12855" yWindow="30" windowWidth="14340" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
   </bookViews>
   <sheets>
     <sheet name="json 파일 구조" sheetId="2" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="191">
   <si>
     <t>명칭</t>
   </si>
@@ -4423,6 +4423,10 @@
   </si>
   <si>
     <t>Move speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5044,6 +5048,144 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5059,42 +5201,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5121,111 +5230,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5543,15 +5547,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7D0CFC-C9B4-405A-B26C-1651B25F2518}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="22" style="99" customWidth="1"/>
+    <col min="5" max="5" width="22" style="45" customWidth="1"/>
     <col min="6" max="6" width="2.375" style="36" customWidth="1"/>
     <col min="7" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="57.5" customWidth="1"/>
@@ -5570,7 +5574,7 @@
       <c r="D1" s="10">
         <v>3</v>
       </c>
-      <c r="E1" s="93">
+      <c r="E1" s="39">
         <v>4</v>
       </c>
       <c r="F1" s="30"/>
@@ -5587,7 +5591,7 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="94"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="31"/>
       <c r="H2" s="24" t="s">
         <v>158</v>
@@ -5599,7 +5603,7 @@
         <v>139</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="95"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="32"/>
       <c r="G3" t="s">
         <v>141</v>
@@ -5614,9 +5618,9 @@
         <v>140</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="95"/>
+        <v>190</v>
+      </c>
+      <c r="E4" s="41"/>
       <c r="F4" s="32"/>
       <c r="G4" t="s">
         <v>142</v>
@@ -5630,7 +5634,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="95"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="32"/>
       <c r="H5" s="24" t="s">
         <v>145</v>
@@ -5640,7 +5644,7 @@
       <c r="D6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F6" s="32"/>
@@ -5655,7 +5659,7 @@
       <c r="D7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F7" s="32"/>
@@ -5670,7 +5674,7 @@
       <c r="D8" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F8" s="32"/>
@@ -5685,7 +5689,7 @@
       <c r="D9" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F9" s="32"/>
@@ -5700,7 +5704,7 @@
       <c r="D10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F10" s="32"/>
@@ -5715,7 +5719,7 @@
       <c r="D11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F11" s="32"/>
@@ -5730,7 +5734,7 @@
       <c r="D12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F12" s="32"/>
@@ -5745,8 +5749,8 @@
       <c r="D13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="95" t="s">
-        <v>186</v>
+      <c r="E13" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="16" t="s">
@@ -5760,7 +5764,7 @@
       <c r="D14" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F14" s="32"/>
@@ -5775,7 +5779,7 @@
       <c r="D15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F15" s="32"/>
@@ -5791,7 +5795,7 @@
         <v>89</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="95"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="32"/>
       <c r="H16" s="25" t="s">
         <v>157</v>
@@ -5801,7 +5805,7 @@
       <c r="D17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F17" s="32"/>
@@ -5816,7 +5820,7 @@
       <c r="D18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F18" s="32"/>
@@ -5832,7 +5836,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="95"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="32"/>
       <c r="H19" s="25" t="s">
         <v>161</v>
@@ -5842,8 +5846,8 @@
       <c r="D20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="95" t="s">
-        <v>186</v>
+      <c r="E20" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="16" t="s">
@@ -5857,7 +5861,7 @@
       <c r="D21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F21" s="32"/>
@@ -5873,7 +5877,7 @@
         <v>101</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="96"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="33"/>
       <c r="H22" s="25" t="s">
         <v>164</v>
@@ -5883,14 +5887,14 @@
       <c r="D23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="97"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="34"/>
       <c r="H23" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="16" customFormat="1">
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="41" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="32"/>
@@ -5899,7 +5903,7 @@
       </c>
     </row>
     <row r="25" spans="3:8" s="16" customFormat="1">
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="44" t="s">
         <v>95</v>
       </c>
       <c r="F25" s="35" t="s">
@@ -5913,7 +5917,7 @@
       </c>
     </row>
     <row r="26" spans="3:8" s="16" customFormat="1">
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="44" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="35" t="s">
@@ -5931,7 +5935,7 @@
         <v>97</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="95"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="32"/>
       <c r="H27" s="25" t="s">
         <v>183</v>
@@ -5941,7 +5945,7 @@
       <c r="D28" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F28" s="32"/>
@@ -5956,7 +5960,7 @@
       <c r="D29" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F29" s="32"/>
@@ -5972,7 +5976,7 @@
         <v>102</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="95"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="32"/>
       <c r="H30" s="25" t="s">
         <v>171</v>
@@ -5982,7 +5986,7 @@
       <c r="D31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F31" s="32"/>
@@ -5998,7 +6002,7 @@
         <v>136</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="95"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="32"/>
       <c r="H32" s="25" t="s">
         <v>172</v>
@@ -6008,7 +6012,7 @@
       <c r="D33" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="95" t="s">
+      <c r="E33" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F33" s="32"/>
@@ -6024,7 +6028,7 @@
         <v>181</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="95"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="32"/>
       <c r="H34" s="25" t="s">
         <v>182</v>
@@ -6034,7 +6038,7 @@
       <c r="D35" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="95" t="s">
+      <c r="E35" s="41" t="s">
         <v>186</v>
       </c>
       <c r="F35" s="32"/>
@@ -6052,7 +6056,7 @@
       <c r="D36" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="95"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="32"/>
       <c r="G36" s="16" t="s">
         <v>103</v>
@@ -6066,9 +6070,9 @@
         <v>189</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="95"/>
+        <v>190</v>
+      </c>
+      <c r="E37" s="41"/>
       <c r="F37" s="32"/>
       <c r="G37" s="38" t="s">
         <v>135</v>
@@ -6078,7 +6082,7 @@
       </c>
     </row>
     <row r="38" spans="3:8" s="16" customFormat="1">
-      <c r="E38" s="95"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="32"/>
     </row>
   </sheetData>
@@ -6349,662 +6353,622 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="45"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="82" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="82" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="46" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="76" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="71"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="71"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="71"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="72"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="45"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="80"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="45"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="80"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="80"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="81"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="73" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="45"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="45"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="83"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="78"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
     </row>
     <row r="31" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="84"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="45"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="45"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="92"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="76" t="s">
+      <c r="B35" s="51"/>
+      <c r="C35" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="78"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="44" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="45"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
     </row>
     <row r="37" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="89" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="49" t="s">
+      <c r="B38" s="61"/>
+      <c r="C38" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="61"/>
     </row>
     <row r="39" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="67" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="56"/>
     </row>
     <row r="40" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="91"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:9" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="85" t="s">
+      <c r="B41" s="56"/>
+      <c r="C41" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="87"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
@@ -7021,6 +6985,46 @@
     <mergeCell ref="C10:I11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
+++ b/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectX Teamproject 관련 파일, 문서\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C3AC46-9497-47AC-BF6F-C5F8F061F727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35CF5F-AFBF-402D-99AA-AB8973C0A04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="30" windowWidth="14340" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
+    <workbookView xWindow="4005" yWindow="0" windowWidth="14340" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
   </bookViews>
   <sheets>
     <sheet name="json 파일 구조" sheetId="2" r:id="rId1"/>
@@ -5069,22 +5069,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5096,10 +5189,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5114,121 +5219,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5547,8 +5547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7D0CFC-C9B4-405A-B26C-1651B25F2518}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6353,622 +6353,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="54" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="61"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="83"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="82" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="61"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="96"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="83"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="61"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="61"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="96"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="61"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="54" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="61"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="83"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="61"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="72" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="56"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="77" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="77"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="77"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="77"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="78"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="86" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="71"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="71"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="85"/>
     </row>
     <row r="26" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="71"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="85"/>
     </row>
     <row r="27" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="72"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="85"/>
     </row>
     <row r="28" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="89" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="74"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="74"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="85"/>
     </row>
     <row r="31" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="75"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="72" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="49" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62" t="s">
+      <c r="B37" s="58"/>
+      <c r="C37" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="65" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="61"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="56"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="68"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="56"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:9" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="57" t="s">
+      <c r="B41" s="76"/>
+      <c r="C41" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
@@ -6985,46 +7025,6 @@
     <mergeCell ref="C10:I11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
+++ b/FrameWork/FrameWork/data/json/Attribute Chracter.json 표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectX Teamproject 관련 파일, 문서\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35CF5F-AFBF-402D-99AA-AB8973C0A04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A285D9C-28B4-4463-9266-F5A675542FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="0" windowWidth="14340" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="13005" windowHeight="16200" xr2:uid="{7D1F4244-3C0D-40CC-B6D9-58786841896A}"/>
   </bookViews>
   <sheets>
     <sheet name="json 파일 구조" sheetId="2" r:id="rId1"/>
@@ -4426,7 +4426,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
+    <t xml:space="preserve"> s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5069,6 +5069,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5084,42 +5201,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5145,90 +5229,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5548,7 +5548,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5645,7 +5645,7 @@
         <v>131</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="16" t="s">
@@ -5660,7 +5660,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="16" t="s">
@@ -5675,7 +5675,7 @@
         <v>133</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="16" t="s">
@@ -5690,7 +5690,7 @@
         <v>134</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="16" t="s">
@@ -5705,7 +5705,7 @@
         <v>85</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="16" t="s">
@@ -5720,7 +5720,7 @@
         <v>86</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="16" t="s">
@@ -5735,7 +5735,7 @@
         <v>87</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="16" t="s">
@@ -5765,7 +5765,7 @@
         <v>156</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="16" t="s">
@@ -5780,7 +5780,7 @@
         <v>88</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="16" t="s">
@@ -5862,7 +5862,7 @@
         <v>92</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="16" t="s">
@@ -5921,7 +5921,7 @@
         <v>96</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>135</v>
@@ -5961,7 +5961,7 @@
         <v>99</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="16" t="s">
@@ -5987,7 +5987,7 @@
         <v>96</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="16" t="s">
@@ -6013,7 +6013,7 @@
         <v>137</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="16" t="s">
@@ -6097,7 +6097,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6353,662 +6353,622 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="82" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:11" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" spans="1:11" ht="69.95" customHeight="1" thickBot="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="82" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="55"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:11" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="46" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="73"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="76" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="78"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="78"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="78"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="79"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="52"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="87"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="87"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="85"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="87"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="85"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="88"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="85"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="73" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="52"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="90"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="52"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="90"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="85"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
     </row>
     <row r="31" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="91"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="85"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="52"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="73"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="52"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="99"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="83" t="s">
+      <c r="B35" s="51"/>
+      <c r="C35" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="85"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="51" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="52"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
     </row>
     <row r="37" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="96" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="56" t="s">
+      <c r="B38" s="61"/>
+      <c r="C38" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="58"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="61"/>
     </row>
     <row r="39" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="67" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="56"/>
     </row>
     <row r="40" spans="1:9" ht="69.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="98"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:9" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="92" t="s">
+      <c r="B41" s="56"/>
+      <c r="C41" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="94"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
@@ -7025,6 +6985,46 @@
     <mergeCell ref="C10:I11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
